--- a/datafiles/busipoolMgtData.xlsx
+++ b/datafiles/busipoolMgtData.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="creBusiPool" sheetId="30" r:id="rId1"/>
     <sheet name="getBusiPool" sheetId="31" r:id="rId2"/>
-    <sheet name="editFlavor" sheetId="32" r:id="rId3"/>
-    <sheet name="delFlavor" sheetId="33" r:id="rId4"/>
-    <sheet name="searchFlavor" sheetId="34" r:id="rId5"/>
+    <sheet name="editBusiPool" sheetId="32" r:id="rId3"/>
+    <sheet name="getBusiPoolUser" sheetId="35" r:id="rId4"/>
+    <sheet name="addBusiPoolUser" sheetId="33" r:id="rId5"/>
+    <sheet name="searchFlavor" sheetId="34" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="293">
   <si>
     <t>test_num</t>
   </si>
@@ -72,20 +73,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"20",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
             "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -107,20 +96,8 @@
             "limits_disk":"999999999",
             "limits_instances":"9999",
             "share_store":"999999999",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
             "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -139,20 +116,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"20",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
             "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -193,20 +158,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"20",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
             "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -228,20 +181,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"20",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -260,20 +201,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"20",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -311,20 +240,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"20",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -343,20 +260,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"20",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -375,20 +280,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"21",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -426,20 +319,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"22",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -458,20 +339,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"23",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -490,20 +359,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"24",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -541,20 +398,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"25",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -573,20 +418,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"26",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -605,20 +438,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"27",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -656,20 +477,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"28",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -688,20 +497,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"29",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -720,20 +517,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"30",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -771,20 +556,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"31",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -803,20 +576,8 @@
             "limits_disk":"20",
             "limits_instances":"",
             "share_store":"25",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -854,20 +615,8 @@
             "limits_disk":"20",
             "limits_instances":"0",
             "share_store":"26",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -886,20 +635,8 @@
             "limits_disk":"20",
             "limits_instances":"10000",
             "share_store":"27",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -937,20 +674,8 @@
             "limits_disk":"20",
             "limits_instances":"汉字云组件个数",
             "share_store":"28",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -969,20 +694,8 @@
             "limits_disk":"20",
             "limits_instances":"@￥#%￥%",
             "share_store":"29",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1020,20 +733,8 @@
             "limits_disk":"20",
             "limits_instances":"2.36",
             "share_store":"30",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1052,20 +753,8 @@
             "limits_disk":"20",
             "limits_instances":"-2",
             "share_store":"31",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1103,20 +792,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"25",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1135,20 +812,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"26",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1186,20 +851,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"27",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1218,20 +871,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"28",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1269,20 +910,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"29",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1301,20 +930,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"30",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1352,20 +969,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"31",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1384,20 +989,8 @@
             "limits_disk":"",
             "limits_instances":"2",
             "share_store":"25",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1435,20 +1028,8 @@
             "limits_disk":"0",
             "limits_instances":"2",
             "share_store":"26",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1467,20 +1048,8 @@
             "limits_disk":"1000000000",
             "limits_instances":"2",
             "share_store":"27",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1524,20 +1093,8 @@
             "limits_disk":"@￥#%￥%",
             "limits_instances":"2",
             "share_store":"29",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1575,20 +1132,8 @@
             "limits_disk":"20.36",
             "limits_instances":"2",
             "share_store":"30",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1607,20 +1152,8 @@
             "limits_disk":"-20",
             "limits_instances":"2",
             "share_store":"31",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1658,20 +1191,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1690,20 +1211,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"0",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1741,20 +1250,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"1000000000",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1773,20 +1270,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"汉字共享空间",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1824,20 +1309,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"@￥#%￥%",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1856,20 +1329,8 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"30.12",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1907,20 +1368,131 @@
             "limits_disk":"20",
             "limits_instances":"2",
             "share_store":"-31",
-            "restricted_containers_privilege":"unprivileged",
-            "restricted_devices_nic":"managed",
-            "restricted_containers_nesting":"block",
-            "restricted_devices_disk":"block",
-            "restricted_devices_gpu":"block",
-            "restricted_devices_usb":"block",
-            "restricted_devices_pci":"block",
-            "restricted_devices_unix_block":"block",
-            "restricted_backups":"allow",
-            "backups_compression_algorithm":"xz",
-            "restricted_snapshots":"allow",
-            "restricted":"true",
-            "single_storage_pool":"false",
-            "restricted_containers_interception":"block"
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-描述为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_NoDes",
+            "description":"",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-描述超过200个字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_DesIsOver200",
+            "description":"描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……Over",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-不开启池安全</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_NoRestricted",
+            "description":"自动化测试-不开启池安全",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘路径限制为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_DiskPathIsNull",
+            "description":"自动化测试-硬盘限制为空",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>可选尚未使用的云硬盘和本地硬盘路径，如果为空，则允许所有路径</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘路径限制为100</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_DiskPathIs100",
+            "description":"自动化测试-硬盘限制为100",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘路径限制超过100</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_DiskPathOver100",
+            "description":"自动化测试-硬盘限制超过100",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
         }</t>
   </si>
   <si>
@@ -1934,219 +1506,942 @@
     <t>业务池管理-获取业务池-成功</t>
   </si>
   <si>
-    <t>规格管理-编辑规格-缺少token</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavor_name", 
-    "cpu": "1", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>缺少token</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-成功</t>
-  </si>
-  <si>
-    <t>{
-    "name": "规格flavor-1_1", 
-    "cpu": "1", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-重名</t>
-  </si>
-  <si>
-    <t>规格已存在</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-名称为空</t>
-  </si>
-  <si>
-    <t>{
-    "name": "", 
-    "cpu": "1", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-名称大于32个字符</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorNameIsOver32CharsflavorNameIsOver32CharsflavorNameIsOver32CharsflavorNameIsOver32CharsflavorNameIsOver32CharsflavorNameIsOver32Chars", 
-    "cpu": "1", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-CPU为空</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorCPUIsNull", 
-    "cpu": "", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-CPU小于1</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorCPUIs0", 
-    "cpu": "0", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-CPU大于256</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorCPUIsOver256", 
-    "cpu": "257", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-CPU为汉字</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorCPUIsCNchar", 
-    "cpu": "汉字", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-CPU为特殊字符</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorCPUIsSpechar", 
-    "cpu": "@#￥", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-CPU为小数</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorCPUIsFloat", 
-    "cpu": "12.3", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-CPU为负数</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorCPUIsLessThan0", 
-    "cpu": "-5", 
-    "memory": "1"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-内存为空</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorMemIsNull", 
-    "cpu": "1", 
-    "memory": ""
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-内存小于1</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorMemIs0", 
-    "cpu": "1", 
-    "memory": "0"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-内存大于4096</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorMemIsOver4096", 
-    "Mem": "1", 
-    "memory": "4097"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-内存为汉字</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorMemIsCNchar", 
-    "Mem": "1", 
-    "memory": "汉字"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-内存为特殊字符</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorMemIsSpechar", 
-    "Mem": "1", 
-    "memory": "@#￥"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-内存为小数</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorMemIsFloat", 
-    "Mem": "1", 
-    "memory": "12.3"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-编辑规格-内存为负数</t>
-  </si>
-  <si>
-    <t>{
-    "name": "flavorMemIsLessThan0", 
-    "Mem": "1", 
-    "memory": "-5"
-}</t>
-  </si>
-  <si>
-    <t>规格管理-删除规格-缺少token</t>
-  </si>
-  <si>
-    <t>{
-    "ids":[
-        "623b0c20-a3d8-4353-9ee0-e16c1ffcf7e6"
-    ]
-}</t>
-  </si>
-  <si>
-    <t>规格管理-删除规格-id不存在</t>
-  </si>
-  <si>
-    <t>{
-    "ids":[
-        "11111111-1111-1111-1111-111111111111"
-    ]
-}</t>
-  </si>
-  <si>
-    <t>id不存在</t>
-  </si>
-  <si>
-    <t>规格管理-删除规格-成功</t>
+    <t>业务池管理-编辑业务池-缺少token</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-成功</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池_配置业务池最大限度基本描述为200字符_自动化脚本编辑的业务池_配置业务池最大限度基本描述为200字符_自动化脚本编辑的业务池_配置业务池最大限度基本描述为200字符_自动化脚本编辑的业务池_配置业务池最大限度基本描述为200字符_自动化脚本编辑的业务池_配置业务池最大限度基本描述为200字符_自动化脚本编辑的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的",
+            "limits_cpu":"9999",
+            "limits_memory":"999999999",
+            "limits_networks":"9999",
+            "limits_disk":"999999999",
+            "limits_instances":"9999",
+            "share_store":"999999999",            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-重名</t>
+  </si>
+  <si>
+    <t>{
+            "name":"default",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-名称为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-名称大于32个字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"busiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32Chars",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-CPU为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-CPU小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"0",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-CPU大于9999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"10000",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-CPU为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"汉字",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"21",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-CPU为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"_$^%%^&amp;%",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"22",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-CPU为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2.56",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"23",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-CPU为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"-2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"24",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-内存为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"25",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-内存小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"0",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"26",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-内存大于999999999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"1000000000",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"27",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-内存为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"汉字内存",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"28",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-内存为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"@￥#%￥%",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"29",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-内存为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2.36",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"30",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-内存为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"-2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-云组件个数为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"",
+            "share_store":"25",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-云组件个数小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"0",
+            "share_store":"26",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-云组件个数大于9999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"10000",
+            "share_store":"27",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-云组件个数为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"汉字云组件个数",
+            "share_store":"28",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-云组件个数为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"@￥#%￥%",
+            "share_store":"29",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-云组件个数为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2.36",
+            "share_store":"30",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-云组件个数为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"-2",
+            "share_store":"31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-网络个数为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"25",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-网络个数小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"0",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"26",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-网络个数大于9999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"10000",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"27",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-网络个数为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"汉字网络个数",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"28",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-网络个数为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"@￥#%￥%",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"29",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-网络个数为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2.56",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"30",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-网络个数为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"-2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘空间为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"",
+            "limits_networks":"2",
+            "limits_disk":"",
+            "limits_instances":"2",
+            "share_store":"25",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘空间小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"0",
+            "limits_instances":"2",
+            "share_store":"26",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘空间大于999999999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"1000000000",
+            "limits_instances":"2",
+            "share_store":"27",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘空间为汉字</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘空间为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"@￥#%￥%",
+            "limits_instances":"2",
+            "share_store":"29",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘空间为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20.36",
+            "limits_instances":"2",
+            "share_store":"30",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘空间为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"-20",
+            "limits_instances":"2",
+            "share_store":"31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-共享空间为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-共享空间小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"0",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"0",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-共享空间大于999999999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"1000000000",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-共享空间为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"汉字共享空间",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-共享空间为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"@￥#%￥%",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-共享空间为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"30.12",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-共享空间为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本编辑的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"-31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-描述为空</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-描述超过200个字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_DesIsOver200",
+            "description":"自动化脚本编辑的业务池描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……Over",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-不开启池安全</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoBP_NoRestricted",
+            "description":"自动化脚本编辑的业务池-不开启池安全",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘路径限制为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"Auto_BP_DiskPathIsNull",
+            "description":"自动化脚本编辑的业务池-硬盘限制为空",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘路径限制为100</t>
+  </si>
+  <si>
+    <t>{
+            "name":"Auto_BP_DiskPathIs100",
+            "description":"自动化脚本编辑的业务池-硬盘限制为100",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-编辑业务池-硬盘路径限制超过100</t>
+  </si>
+  <si>
+    <t>{
+            "name":"Auto_BP_DiskPathOver100",
+            "description":"自动化脚本编辑的业务池-硬盘限制超过100",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>业务池管理-获取业务池成员列表-缺少token</t>
+  </si>
+  <si>
+    <t>业务池管理-获取业务池成员列表-成功</t>
+  </si>
+  <si>
+    <t>业务池管理-添加业务池成员-缺少token</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "pool_id":"f2415fd715e74f6888fc3c420a2bbd2c",
+        "user_id":555,
+        "role_id":7
+    }
+]</t>
+  </si>
+  <si>
+    <t>业务池管理-添加业务池成员-成功</t>
+  </si>
+  <si>
+    <t>业务池管理-添加业务池成员-poolId不存在</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "pool_id":"99999999999",
+        "user_id":555,
+        "role_id":7
+    }
+]</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>业务池管理-添加业务池成员-userId不存在</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "pool_id":"99999999999",
+        "user_id":99999999999,
+        "role_id":7
+    }
+]</t>
+  </si>
+  <si>
+    <t>用户不存在</t>
+  </si>
+  <si>
+    <t>业务池管理-添加业务池成员-roleId不存在</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "pool_id":"99999999999",
+        "user_id":555,
+        "role_id":77777
+    }
+]</t>
+  </si>
+  <si>
+    <t>请选择正确的角色</t>
   </si>
   <si>
     <t>规格管理-查询规格-缺少token</t>
@@ -2156,6 +2451,9 @@
     "page":"1",
     "size":"10"
 }</t>
+  </si>
+  <si>
+    <t>缺少token</t>
   </si>
   <si>
     <t>规格管理-查询规格-成功</t>
@@ -2812,7 +3110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2835,6 +3133,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2848,7 +3149,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3205,10 +3509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3239,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="324" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="162" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -3259,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="391.5" spans="1:6">
+    <row r="3" s="2" customFormat="1" ht="229.5" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -3277,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="324" spans="1:6">
+    <row r="4" s="2" customFormat="1" ht="162" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3293,11 +3597,9 @@
       <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="324" spans="1:5">
+      <c r="F4"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="162" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -3314,7 +3616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="364.5" spans="1:5">
+    <row r="6" ht="202.5" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -3331,7 +3633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="324" spans="1:5">
+    <row r="7" ht="162" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -3348,7 +3650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="324" spans="1:5">
+    <row r="8" ht="162" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -3365,7 +3667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="324" spans="1:5">
+    <row r="9" ht="162" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -3382,7 +3684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="324" spans="1:5">
+    <row r="10" ht="162" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -3399,7 +3701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="324" spans="1:5">
+    <row r="11" ht="162" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -3416,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="324" spans="1:5">
+    <row r="12" ht="162" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -3433,7 +3735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="324" spans="1:5">
+    <row r="13" ht="162" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -3450,7 +3752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="324" spans="1:5">
+    <row r="14" ht="162" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -3467,7 +3769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="324" spans="1:5">
+    <row r="15" ht="162" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -3484,7 +3786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="324" spans="1:5">
+    <row r="16" ht="162" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -3501,7 +3803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="324" spans="1:5">
+    <row r="17" ht="162" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -3518,7 +3820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="324" spans="1:5">
+    <row r="18" ht="162" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -3535,7 +3837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="324" spans="1:5">
+    <row r="19" ht="162" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -3552,24 +3854,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" ht="324" spans="1:5">
-      <c r="A20" s="9" t="s">
+    <row r="20" s="9" customFormat="1" ht="162" spans="1:5">
+      <c r="A20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="12">
-        <v>1001</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" ht="324" spans="1:5">
+      <c r="D20" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="162" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
@@ -3586,8 +3888,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="324" spans="1:5">
-      <c r="A22" s="9" t="s">
+    <row r="22" ht="162" spans="1:5">
+      <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3603,7 +3905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="324" spans="1:5">
+    <row r="23" ht="162" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -3620,8 +3922,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="324" spans="1:5">
-      <c r="A24" s="9" t="s">
+    <row r="24" ht="162" spans="1:5">
+      <c r="A24" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3637,7 +3939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="324" spans="1:5">
+    <row r="25" ht="162" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>78</v>
       </c>
@@ -3654,8 +3956,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="324" spans="1:5">
-      <c r="A26" s="9" t="s">
+    <row r="26" ht="162" spans="1:5">
+      <c r="A26" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3671,25 +3973,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" ht="324" spans="1:5">
+    <row r="27" s="9" customFormat="1" ht="162" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="12">
-        <v>1001</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="324" spans="1:5">
-      <c r="A28" s="9" t="s">
+      <c r="D27" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="162" spans="1:5">
+      <c r="A28" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3705,7 +4007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="324" spans="1:5">
+    <row r="29" ht="162" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>90</v>
       </c>
@@ -3722,8 +4024,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="324" spans="1:5">
-      <c r="A30" s="9" t="s">
+    <row r="30" ht="162" spans="1:5">
+      <c r="A30" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3739,7 +4041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="324" spans="1:5">
+    <row r="31" ht="162" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>96</v>
       </c>
@@ -3756,8 +4058,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" ht="324" spans="1:5">
-      <c r="A32" s="9" t="s">
+    <row r="32" ht="162" spans="1:5">
+      <c r="A32" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3773,7 +4075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" ht="324" spans="1:5">
+    <row r="33" ht="162" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>102</v>
       </c>
@@ -3790,24 +4092,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" s="8" customFormat="1" ht="324" spans="1:5">
-      <c r="A34" s="9" t="s">
+    <row r="34" s="9" customFormat="1" ht="162" spans="1:5">
+      <c r="A34" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="12">
-        <v>1001</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" ht="324" spans="1:5">
+      <c r="D34" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="162" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>108</v>
       </c>
@@ -3824,8 +4126,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" ht="324" spans="1:5">
-      <c r="A36" s="9" t="s">
+    <row r="36" ht="162" spans="1:5">
+      <c r="A36" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3841,7 +4143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" ht="324" spans="1:5">
+    <row r="37" ht="162" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
@@ -3858,8 +4160,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" ht="324" spans="1:5">
-      <c r="A38" s="9" t="s">
+    <row r="38" ht="162" spans="1:5">
+      <c r="A38" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3875,7 +4177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" ht="324" spans="1:5">
+    <row r="39" ht="162" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>119</v>
       </c>
@@ -3892,8 +4194,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" ht="324" spans="1:5">
-      <c r="A40" s="9" t="s">
+    <row r="40" ht="162" spans="1:5">
+      <c r="A40" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3909,25 +4211,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" s="8" customFormat="1" ht="324" spans="1:5">
+    <row r="41" s="9" customFormat="1" ht="162" spans="1:5">
       <c r="A41" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="12">
-        <v>1001</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" ht="324" spans="1:5">
-      <c r="A42" s="9" t="s">
+      <c r="D41" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="175.5" spans="1:5">
+      <c r="A42" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3943,7 +4245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" ht="324" spans="1:5">
+    <row r="43" ht="162" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>131</v>
       </c>
@@ -3960,8 +4262,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" ht="324" spans="1:5">
-      <c r="A44" s="9" t="s">
+    <row r="44" ht="162" spans="1:5">
+      <c r="A44" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -3977,7 +4279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" ht="324" spans="1:5">
+    <row r="45" ht="162" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>137</v>
       </c>
@@ -3994,8 +4296,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" ht="324" spans="1:5">
-      <c r="A46" s="9" t="s">
+    <row r="46" ht="162" spans="1:5">
+      <c r="A46" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -4011,7 +4313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" ht="324" spans="1:5">
+    <row r="47" ht="162" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>143</v>
       </c>
@@ -4028,21 +4330,132 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" s="8" customFormat="1" ht="324" spans="1:5">
-      <c r="A48" s="9" t="s">
+    <row r="48" s="9" customFormat="1" ht="162" spans="1:5">
+      <c r="A48" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="12">
-        <v>1001</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>20</v>
+      <c r="D48" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="162" spans="1:6">
+      <c r="A49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="216" spans="1:5">
+      <c r="A50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="162" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" ht="162" spans="1:6">
+      <c r="A52" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" ht="162" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="162" spans="1:6">
+      <c r="A54" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4057,7 +4470,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -4092,10 +4505,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -4112,10 +4525,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4131,13 +4544,970 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="68.625" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="162" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="229.5" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="162" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="2">
+        <v>201018</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="162" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="202.5" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="162" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="162" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="162" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="162" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="162" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="162" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="162" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="162" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="162" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="162" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="162" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="162" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="162" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="162" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="162" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="162" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="162" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="162" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="162" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="162" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" s="9" customFormat="1" ht="162" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="162" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="162" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="162" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="162" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="162" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="162" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="162" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="162" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="162" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="162" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="162" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="162" spans="1:5">
+      <c r="A39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="162" spans="1:5">
+      <c r="A40" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" s="9" customFormat="1" ht="162" spans="1:5">
+      <c r="A41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="162" spans="1:5">
+      <c r="A42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="162" spans="1:5">
+      <c r="A43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="162" spans="1:5">
+      <c r="A44" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="162" spans="1:5">
+      <c r="A45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="162" spans="1:5">
+      <c r="A46" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="162" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="162" spans="1:5">
+      <c r="A48" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="162" spans="1:6">
+      <c r="A49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="229.5" spans="1:5">
+      <c r="A50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" ht="162" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" ht="162" spans="1:6">
+      <c r="A52" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" ht="162" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="162" spans="1:6">
+      <c r="A54" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="15">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
@@ -4164,336 +5534,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="2">
-        <v>218000</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" customFormat="1" ht="108" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="67.5" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="67.5" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" ht="67.5" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" ht="67.5" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="67.5" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4501,18 +5575,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="45.75" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
@@ -4537,58 +5611,98 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="108" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="108" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2">
-        <v>200200</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="94.5" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1039</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="2">
+        <v>220008</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4598,7 +5712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4639,16 +5753,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -4659,10 +5773,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>

--- a/datafiles/busipoolMgtData.xlsx
+++ b/datafiles/busipoolMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="creBusiPool" sheetId="30" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
   </si>
   <si>
     <t>{
-            "name":"AutoAPI_BP_DiskPathIs100",
+            "name":"Auto_BP_DiskPathIs100",
             "description":"自动化测试-硬盘限制为100",
             "limits_cpu":"2",
             "limits_memory":"2",
@@ -3511,8 +3511,8 @@
   <sheetPr/>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4433,7 +4433,6 @@
       <c r="D53" s="15">
         <v>0</v>
       </c>
-      <c r="E53"/>
       <c r="F53" s="15">
         <v>3</v>
       </c>
@@ -5580,8 +5579,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/datafiles/busipoolMgtData.xlsx
+++ b/datafiles/busipoolMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="creBusiPool" sheetId="30" r:id="rId1"/>
@@ -3511,7 +3511,7 @@
   <sheetPr/>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A45" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -5579,8 +5579,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -5676,7 +5676,7 @@
         <v>284</v>
       </c>
       <c r="D5" s="2">
-        <v>1039</v>
+        <v>220018</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>285</v>

--- a/datafiles/busipoolMgtData.xlsx
+++ b/datafiles/busipoolMgtData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="creBusiPool" sheetId="30" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="294">
   <si>
     <t>test_num</t>
   </si>
@@ -37,6 +37,1444 @@
   </si>
   <si>
     <t>flag</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-缺少token</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"true",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>缺少认证信息</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-成功</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的",
+            "limits_cpu":"9999",
+            "limits_memory":"999999999",
+            "limits_networks":"9999",
+            "limits_disk":"999999999",
+            "limits_instances":"9999",
+            "share_store":"999999999",
+            "restricted":"true",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-重名</t>
+  </si>
+  <si>
+    <t>{
+            "name":"default",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"true",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>池已存在</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-名称为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"true",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>参数错误</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-名称大于32个字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"busiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32Chars",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-CPU为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-CPU小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"0",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-CPU大于9999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"10000",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-CPU为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"汉字",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"21",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-CPU为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"_$^%%^&amp;%",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"22",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-CPU为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2.56",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"23",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-CPU为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"-2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"24",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-内存为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"25",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-内存小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"0",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"26",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-内存大于999999999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"1000000000",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"27",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-内存为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"汉字内存",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"28",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-内存为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"@￥#%￥%",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"29",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-内存为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2.36",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"30",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-内存为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"-2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-云组件个数为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"",
+            "share_store":"25",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-云组件个数小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"0",
+            "share_store":"26",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-云组件个数大于9999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"10000",
+            "share_store":"27",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-云组件个数为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"汉字云组件个数",
+            "share_store":"28",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-云组件个数为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"@￥#%￥%",
+            "share_store":"29",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-云组件个数为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2.36",
+            "share_store":"30",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-云组件个数为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"-2",
+            "share_store":"31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-网络个数为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"25",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-网络个数小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"0",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"26",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-网络个数大于9999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"10000",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"27",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-网络个数为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"汉字网络个数",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"28",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-网络个数为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"@￥#%￥%",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"29",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-网络个数为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2.56",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"30",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-网络个数为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"-2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘空间为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"",
+            "limits_networks":"2",
+            "limits_disk":"",
+            "limits_instances":"2",
+            "share_store":"25",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘空间小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"0",
+            "limits_instances":"2",
+            "share_store":"26",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘空间大于999999999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"1000000000",
+            "limits_instances":"2",
+            "share_store":"27",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘空间为汉字</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘空间为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"@￥#%￥%",
+            "limits_instances":"2",
+            "share_store":"29",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘空间为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20.36",
+            "limits_instances":"2",
+            "share_store":"30",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘空间为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"-20",
+            "limits_instances":"2",
+            "share_store":"31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-共享空间为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-共享空间小于1</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"0",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"0",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-共享空间大于999999999</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"1000000000",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-共享空间为汉字</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"汉字共享空间",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-共享空间为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"@￥#%￥%",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-共享空间为小数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"30.12",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-共享空间为负数</t>
+  </si>
+  <si>
+    <t>{
+            "name":"-_-业务池AutoAPI_BP1",
+            "description":"自动化脚本创建的业务池",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"-31",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-描述为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_NoDes",
+            "description":"",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-描述超过200个字符</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_DesIsOver200",
+            "description":"描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……Over",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-不开启池安全</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_NoRestricted",
+            "description":"自动化测试-不开启池安全",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘路径限制为空</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_DiskPathIsNull",
+            "description":"自动化测试-硬盘限制为空",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>可选尚未使用的云硬盘和本地硬盘路径，如果为空，则允许所有路径</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘路径限制为100</t>
+  </si>
+  <si>
+    <t>{
+            "name":"Auto_BP_DiskPathIs100",
+            "description":"自动化测试-硬盘限制为100",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>业务池管理-新建业务池-硬盘路径限制超过100</t>
+  </si>
+  <si>
+    <t>{
+            "name":"AutoAPI_BP_DiskPathOver100",
+            "description":"自动化测试-硬盘限制超过100",
+            "limits_cpu":"2",
+            "limits_memory":"2",
+            "limits_networks":"2",
+            "limits_disk":"20",
+            "limits_instances":"2",
+            "share_store":"20",
+            "restricted":"false",
+            "single_storage_pool":"false"
+        }</t>
   </si>
   <si>
     <r>
@@ -59,1441 +1497,6 @@
       </rPr>
       <t>1</t>
     </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-缺少token</t>
-  </si>
-  <si>
-    <t>{
-            "name":"AutoAPI_BP",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"true",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>缺少认证信息</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-成功</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的业务池_配置业务池最大限度基本描述为200字符_自动化脚本创建的",
-            "limits_cpu":"9999",
-            "limits_memory":"999999999",
-            "limits_networks":"9999",
-            "limits_disk":"999999999",
-            "limits_instances":"9999",
-            "share_store":"999999999",
-            "restricted":"true",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-重名</t>
-  </si>
-  <si>
-    <t>{
-            "name":"default",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"true",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>池已存在</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-名称为空</t>
-  </si>
-  <si>
-    <t>{
-            "name":"",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"true",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>参数错误</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-名称大于32个字符</t>
-  </si>
-  <si>
-    <t>{
-            "name":"busiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32CharsbusiPoolNameIsOver32Chars",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-CPU为空</t>
-  </si>
-  <si>
-    <t>{
-            "name":"AutoAPI_BP",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-CPU小于1</t>
-  </si>
-  <si>
-    <t>{
-            "name":"AutoAPI_BP",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"0",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-CPU大于9999</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"10000",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-CPU为汉字</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"汉字",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"21",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-CPU为特殊字符</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"_$^%%^&amp;%",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"22",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-CPU为小数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2.56",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"23",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-CPU为负数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"-2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"24",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-内存为空</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"25",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-内存小于1</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"0",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"26",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-内存大于999999999</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"1000000000",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"27",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-内存为汉字</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"汉字内存",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"28",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-内存为特殊字符</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"@￥#%￥%",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"29",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-内存为小数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2.36",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"30",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-内存为负数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"-2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"31",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-云组件个数为空</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"",
-            "share_store":"25",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-云组件个数小于1</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"0",
-            "share_store":"26",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-云组件个数大于9999</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"10000",
-            "share_store":"27",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-云组件个数为汉字</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"汉字云组件个数",
-            "share_store":"28",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-云组件个数为特殊字符</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"@￥#%￥%",
-            "share_store":"29",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-云组件个数为小数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2.36",
-            "share_store":"30",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-云组件个数为负数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"-2",
-            "share_store":"31",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-网络个数为空</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"25",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-网络个数小于1</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"0",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"26",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-网络个数大于9999</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"10000",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"27",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-网络个数为汉字</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"汉字网络个数",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"28",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-网络个数为特殊字符</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"@￥#%￥%",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"29",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-网络个数为小数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2.56",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"30",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-网络个数为负数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"-2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"31",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘空间为空</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"",
-            "limits_networks":"2",
-            "limits_disk":"",
-            "limits_instances":"2",
-            "share_store":"25",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘空间小于1</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"0",
-            "limits_instances":"2",
-            "share_store":"26",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>036</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘空间大于999999999</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"1000000000",
-            "limits_instances":"2",
-            "share_store":"27",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘空间为汉字</t>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘空间为特殊字符</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"@￥#%￥%",
-            "limits_instances":"2",
-            "share_store":"29",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘空间为小数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20.36",
-            "limits_instances":"2",
-            "share_store":"30",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘空间为负数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"-20",
-            "limits_instances":"2",
-            "share_store":"31",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-共享空间为空</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-共享空间小于1</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"0",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"0",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-共享空间大于999999999</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"1000000000",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-共享空间为汉字</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"汉字共享空间",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-共享空间为特殊字符</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"@￥#%￥%",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-共享空间为小数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"30.12",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-共享空间为负数</t>
-  </si>
-  <si>
-    <t>{
-            "name":"-_-业务池AutoAPI_BP1",
-            "description":"自动化脚本创建的业务池",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"-31",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-描述为空</t>
-  </si>
-  <si>
-    <t>{
-            "name":"AutoAPI_BP_NoDes",
-            "description":"",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-描述超过200个字符</t>
-  </si>
-  <si>
-    <t>{
-            "name":"AutoAPI_BP_DesIsOver200",
-            "description":"描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……描述字符超过200个HHH！@#￥%……Over",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-不开启池安全</t>
-  </si>
-  <si>
-    <t>{
-            "name":"AutoAPI_BP_NoRestricted",
-            "description":"自动化测试-不开启池安全",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘路径限制为空</t>
-  </si>
-  <si>
-    <t>{
-            "name":"AutoAPI_BP_DiskPathIsNull",
-            "description":"自动化测试-硬盘限制为空",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>可选尚未使用的云硬盘和本地硬盘路径，如果为空，则允许所有路径</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘路径限制为100</t>
-  </si>
-  <si>
-    <t>{
-            "name":"Auto_BP_DiskPathIs100",
-            "description":"自动化测试-硬盘限制为100",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>业务池管理-新建业务池-硬盘路径限制超过100</t>
-  </si>
-  <si>
-    <t>{
-            "name":"AutoAPI_BP_DiskPathOver100",
-            "description":"自动化测试-硬盘限制超过100",
-            "limits_cpu":"2",
-            "limits_memory":"2",
-            "limits_networks":"2",
-            "limits_disk":"20",
-            "limits_instances":"2",
-            "share_store":"20",
-            "restricted":"false",
-            "single_storage_pool":"false"
-        }</t>
   </si>
   <si>
     <t>业务池管理-获取业务池-缺少token</t>
@@ -3511,8 +3514,8 @@
   <sheetPr/>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4501,13 +4504,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -4524,10 +4527,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4579,13 +4582,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="162" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -4602,10 +4605,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -4620,10 +4623,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2">
         <v>201018</v>
@@ -4638,10 +4641,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D5" s="2">
         <v>1001</v>
@@ -4655,10 +4658,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -4672,10 +4675,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
@@ -4689,10 +4692,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D8" s="2">
         <v>1001</v>
@@ -4706,10 +4709,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D9" s="2">
         <v>1001</v>
@@ -4723,10 +4726,10 @@
         <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D10" s="2">
         <v>1001</v>
@@ -4740,10 +4743,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2">
         <v>1001</v>
@@ -4757,10 +4760,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D12" s="2">
         <v>1001</v>
@@ -4774,10 +4777,10 @@
         <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D13" s="2">
         <v>1001</v>
@@ -4791,10 +4794,10 @@
         <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D14" s="2">
         <v>1001</v>
@@ -4808,10 +4811,10 @@
         <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D15" s="2">
         <v>1001</v>
@@ -4825,10 +4828,10 @@
         <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2">
         <v>1001</v>
@@ -4842,10 +4845,10 @@
         <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2">
         <v>1001</v>
@@ -4859,10 +4862,10 @@
         <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D18" s="2">
         <v>1001</v>
@@ -4876,10 +4879,10 @@
         <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D19" s="2">
         <v>1001</v>
@@ -4893,10 +4896,10 @@
         <v>63</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D20" s="13">
         <v>1001</v>
@@ -4910,10 +4913,10 @@
         <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D21" s="2">
         <v>1001</v>
@@ -4927,10 +4930,10 @@
         <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2">
         <v>1001</v>
@@ -4944,10 +4947,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D23" s="2">
         <v>1001</v>
@@ -4961,10 +4964,10 @@
         <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D24" s="2">
         <v>1001</v>
@@ -4978,10 +4981,10 @@
         <v>78</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D25" s="2">
         <v>1001</v>
@@ -4995,10 +4998,10 @@
         <v>81</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D26" s="2">
         <v>1001</v>
@@ -5012,10 +5015,10 @@
         <v>84</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D27" s="13">
         <v>1001</v>
@@ -5029,10 +5032,10 @@
         <v>87</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D28" s="2">
         <v>1001</v>
@@ -5046,10 +5049,10 @@
         <v>90</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D29" s="2">
         <v>1001</v>
@@ -5063,10 +5066,10 @@
         <v>93</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D30" s="2">
         <v>1001</v>
@@ -5080,10 +5083,10 @@
         <v>96</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D31" s="2">
         <v>1001</v>
@@ -5097,10 +5100,10 @@
         <v>99</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D32" s="2">
         <v>1001</v>
@@ -5114,10 +5117,10 @@
         <v>102</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D33" s="2">
         <v>1001</v>
@@ -5131,10 +5134,10 @@
         <v>105</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D34" s="13">
         <v>1001</v>
@@ -5148,10 +5151,10 @@
         <v>108</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D35" s="2">
         <v>1001</v>
@@ -5165,10 +5168,10 @@
         <v>111</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D36" s="2">
         <v>1001</v>
@@ -5182,10 +5185,10 @@
         <v>114</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D37" s="2">
         <v>1001</v>
@@ -5199,10 +5202,10 @@
         <v>117</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D38" s="2">
         <v>1001</v>
@@ -5216,10 +5219,10 @@
         <v>119</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D39" s="2">
         <v>1001</v>
@@ -5233,10 +5236,10 @@
         <v>122</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D40" s="2">
         <v>1001</v>
@@ -5250,10 +5253,10 @@
         <v>125</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D41" s="13">
         <v>1001</v>
@@ -5267,10 +5270,10 @@
         <v>128</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D42" s="2">
         <v>1001</v>
@@ -5284,10 +5287,10 @@
         <v>131</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D43" s="2">
         <v>1001</v>
@@ -5301,10 +5304,10 @@
         <v>134</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D44" s="2">
         <v>1001</v>
@@ -5318,10 +5321,10 @@
         <v>137</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D45" s="2">
         <v>1001</v>
@@ -5335,10 +5338,10 @@
         <v>140</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D46" s="2">
         <v>1001</v>
@@ -5352,10 +5355,10 @@
         <v>143</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D47" s="2">
         <v>1001</v>
@@ -5369,10 +5372,10 @@
         <v>146</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D48" s="13">
         <v>1001</v>
@@ -5386,7 +5389,7 @@
         <v>149</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>151</v>
@@ -5404,10 +5407,10 @@
         <v>152</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D50" s="13">
         <v>1001</v>
@@ -5421,10 +5424,10 @@
         <v>155</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D51" s="13">
         <v>0</v>
@@ -5439,10 +5442,10 @@
         <v>158</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D52" s="13">
         <v>0</v>
@@ -5459,10 +5462,10 @@
         <v>162</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D53" s="15">
         <v>0</v>
@@ -5476,10 +5479,10 @@
         <v>165</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D54" s="13">
         <v>1001</v>
@@ -5535,13 +5538,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -5558,10 +5561,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -5579,8 +5582,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -5612,13 +5615,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="108" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -5635,10 +5638,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -5653,10 +5656,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -5667,19 +5670,19 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="94.5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D5" s="2">
         <v>220018</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -5690,16 +5693,16 @@
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D6" s="2">
         <v>220008</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -5749,19 +5752,19 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="54" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -5772,10 +5775,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
